--- a/数据整理/stocks/A股/创业板/300762-上海瀚讯.xlsx
+++ b/数据整理/stocks/A股/创业板/300762-上海瀚讯.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.19</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.43</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5772</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003333</t>
+          <t>008960</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰信智选成长灵活配置混合</t>
+          <t>长信国防军工量化灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008960</t>
+          <t>003333</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合C</t>
+          <t>泰信智选成长灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,25 +672,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003333</t>
+          <t>000690</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰信智选成长灵活配置混合</t>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -650,25 +710,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000690</t>
+          <t>003333</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源大海洋战略经济灵活配置混合</t>
+          <t>泰信智选成长灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.61</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300762-上海瀚讯.xlsx
+++ b/数据整理/stocks/A股/创业板/300762-上海瀚讯.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9712</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300762-上海瀚讯.xlsx
+++ b/数据整理/stocks/A股/创业板/300762-上海瀚讯.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8947</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>53.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4844</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010444</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2289</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010445</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300762-上海瀚讯.xlsx
+++ b/数据整理/stocks/A股/创业板/300762-上海瀚讯.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300762-上海瀚讯.xlsx
+++ b/数据整理/stocks/A股/创业板/300762-上海瀚讯.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.89</v>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.35</v>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1376,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="5">
@@ -1327,13 +1498,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.75</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300762-上海瀚讯.xlsx
+++ b/数据整理/stocks/A股/创业板/300762-上海瀚讯.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4559</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.04</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1561,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="4">
@@ -1482,14 +1577,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.35</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="5">
@@ -1498,14 +1593,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="6">
@@ -1514,13 +1609,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.75</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300762-上海瀚讯.xlsx
+++ b/数据整理/stocks/A股/创业板/300762-上海瀚讯.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,167 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002983</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长信国防军工量化灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5772</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008960</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长信国防军工量化灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1613</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.04</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003333</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰信智选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -626,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -677,74 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000690</t>
+          <t>010695</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源大海洋战略经济灵活配置混合</t>
+          <t>华夏磐益一年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>18.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.61</t>
+          <t>82.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1340</t>
+          <t>0.4559</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003333</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰信智选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,7 +703,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -819,26 +743,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.16</t>
+          <t>24.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64.43</t>
+          <t>99.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9712</t>
+          <t>1.0000</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -857,26 +781,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.94</t>
+          <t>20.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1969</t>
+          <t>0.0345</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -885,74 +809,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000690</t>
+          <t>009838</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源大海洋战略经济灵活配置混合</t>
+          <t>华夏磐锐一年定期开放混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.97</t>
+          <t>20.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1777</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009838</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏磐锐一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1271,7 +1157,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1311,26 +1197,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.63</t>
+          <t>21.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.97</t>
+          <t>64.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0000</t>
+          <t>0.9712</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1349,26 +1235,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.04</t>
+          <t>94.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0345</t>
+          <t>0.1969</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1377,36 +1263,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>009838</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>华夏磐锐一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.04</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1420,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1441,7 +1365,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1471,36 +1395,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010695</t>
+          <t>000690</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏磐益一年定期开放混合</t>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.02</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.41</t>
+          <t>84.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4559</t>
+          <t>0.1340</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1514,128 +1476,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5772</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.04</v>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.75</v>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300762-上海瀚讯.xlsx
+++ b/数据整理/stocks/A股/创业板/300762-上海瀚讯.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.04</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.35</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -583,6 +600,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2828</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015496</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015495</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013166</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013167</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -676,7 +1129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -846,7 +1299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1130,7 +1583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1338,7 +1791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1470,7 +1923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300762-上海瀚讯.xlsx
+++ b/数据整理/stocks/A股/创业板/300762-上海瀚讯.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.04</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.35</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.14</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001154</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>北信瑞丰平安中国主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014668</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014669</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1035,7 +1260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1129,7 +1354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1299,7 +1524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1583,7 +1808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1791,7 +2016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1923,7 +2148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
